--- a/OS/分配.xlsx
+++ b/OS/分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18351" windowHeight="8091"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>先来先服务</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>韩深奥</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>基于扫描的磁盘调度算法</t>
@@ -59,7 +62,13 @@
     <t>王嘉炀</t>
   </si>
   <si>
+    <t>杜志成</t>
+  </si>
+  <si>
     <t>银行家算法</t>
+  </si>
+  <si>
+    <t>杨一冉</t>
   </si>
 </sst>
 </file>
@@ -72,7 +81,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +91,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,150 +585,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,19 +1265,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.61111111111111" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.71171171171171" customWidth="1"/>
-    <col min="2" max="2" width="23.5495495495495" customWidth="1"/>
+    <col min="1" max="1" width="5.71296296296296" customWidth="1"/>
+    <col min="2" max="2" width="23.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1262,8 +1287,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1271,43 +1299,52 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
